--- a/docs/plano-de-aulas.xlsx
+++ b/docs/plano-de-aulas.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="139">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -140,6 +140,9 @@
 Discussão: algoritmo mergesort
 Implementações
 Ref Cormen cap 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUIZ NESSA SEMANA SOBRE RECURSÃO USANDO AULA CANCELADA!</t>
   </si>
   <si>
     <t xml:space="preserve">Revisão Geral</t>
@@ -209,6 +212,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Mochila binária III</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desenvolvimento guiado do algoritmo de backtracking com alunos que devolve a mochila encontrada.
 Implementação do algoritmo usando testes de unidade. Ref Skiena Cap 7</t>
   </si>
@@ -223,7 +229,7 @@
 "Algoritmo da mão direita": desenvolver método inicial para sair do labirinto e implementar.</t>
   </si>
   <si>
-    <t xml:space="preserve">QUIZ NESSA SEMANA SOBRE RECURSÃO USANDO AULA CANCELADA!</t>
+    <t xml:space="preserve">QUIZ SOBRE RECURSÃO</t>
   </si>
   <si>
     <t xml:space="preserve">Como encontrar um caminho até o destino?</t>
@@ -306,13 +312,6 @@
 Aluno faz Implementação com testes de unidade
 Ref Cormen cap 22</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Estruturas de Dados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo Conjunto (array booleano)
-Atividade: reimplementar algoritmos com diferentes tipos de lista </t>
   </si>
   <si>
     <r>
@@ -374,7 +373,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">CANCELADO VIAGEM</t>
+    <t xml:space="preserve">Aula de revisão com Ninjas</t>
   </si>
   <si>
     <t xml:space="preserve">SEMANA AF</t>
@@ -429,6 +428,9 @@
 Ref Cormen cap 22</t>
   </si>
   <si>
+    <t xml:space="preserve">Estruturas de Dados</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ref Cormen cap 22</t>
   </si>
   <si>
@@ -693,11 +695,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -767,7 +768,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,13 +778,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFD7D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -808,6 +809,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF5CE"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -970,10 +977,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -994,20 +997,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1018,24 +1021,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1046,11 +1049,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1118,7 +1125,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1127,7 +1134,7 @@
       <rgbColor rgb="FF5B277D"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1342,10 +1349,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1360,6 +1367,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="40.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,17 +1514,17 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="3" t="n">
         <f aca="false">A6 + 7</f>
         <v>45901</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
@@ -1526,24 +1534,24 @@
       <c r="B9" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="98.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="3" t="n">
         <f aca="false">A8 + 7</f>
         <v>45908</v>
       </c>
@@ -1585,7 +1593,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="3" t="n">
         <f aca="false">A10 + 7</f>
         <v>45915</v>
       </c>
@@ -1603,6 +1611,9 @@
       </c>
       <c r="F12" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1614,34 +1625,34 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="3" t="n">
         <f aca="false">A12 + 7</f>
         <v>45922</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="15"/>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="93.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
@@ -1651,55 +1662,54 @@
       <c r="B15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="15"/>
+      <c r="C15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="106.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="n">
+      <c r="A16" s="3" t="n">
         <f aca="false">A14 + 7</f>
         <v>45929</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="138.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <f aca="false">A15+7</f>
         <v>45931</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="134.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
@@ -1710,20 +1720,21 @@
         <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="121.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="n">
+      <c r="A19" s="3" t="n">
         <f aca="false">A17 + 7</f>
         <v>45938</v>
       </c>
@@ -1731,10 +1742,10 @@
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>8</v>
@@ -1742,6 +1753,7 @@
       <c r="F19" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="139.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
@@ -1751,24 +1763,24 @@
       <c r="B20" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>48</v>
+      <c r="L20" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="127.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="n">
+      <c r="A21" s="3" t="n">
         <f aca="false">A19 + 7</f>
         <v>45945</v>
       </c>
@@ -1776,17 +1788,18 @@
         <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="L21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
@@ -1796,41 +1809,39 @@
       <c r="B22" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="C22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="202.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="n">
+      <c r="A23" s="3" t="n">
         <f aca="false">A21 + 7</f>
         <v>45952</v>
       </c>
       <c r="B23" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="99.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1841,42 +1852,40 @@
       <c r="B24" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="112.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="n">
+      <c r="A25" s="3" t="n">
         <f aca="false">A23 + 7</f>
         <v>45959</v>
       </c>
       <c r="B25" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>45</v>
+      <c r="C25" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="167.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
@@ -1886,27 +1895,33 @@
       <c r="B26" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="C26" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="C26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="94" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="n">
+      <c r="A27" s="3" t="n">
         <f aca="false">A25 + 7</f>
         <v>45966</v>
       </c>
       <c r="B27" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
@@ -1916,67 +1931,54 @@
       <c r="B28" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="n">
+      <c r="A29" s="3" t="n">
         <f aca="false">A27 + 7</f>
         <v>45973</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
-        <f aca="false">A28+7</f>
-        <v>45978</v>
-      </c>
+      <c r="A30" s="18"/>
       <c r="B30" s="4" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="n">
-        <f aca="false">A29 + 7</f>
-        <v>45980</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="B31" s="4" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
-        <f aca="false">A30+7</f>
-        <v>45985</v>
-      </c>
-      <c r="B32" s="15"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
-        <f aca="false">A31+7</f>
-        <v>45987</v>
-      </c>
-      <c r="B33" s="15"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C26:F26"/>
+  <mergeCells count="1">
     <mergeCell ref="C27:F27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2036,7 +2038,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="18" t="n">
         <v>45693</v>
       </c>
       <c r="B2" s="4" t="n">
@@ -2056,7 +2058,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="18" t="n">
         <v>45695</v>
       </c>
       <c r="B3" s="4" t="n">
@@ -2076,7 +2078,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="18" t="n">
         <f aca="false">A2+7</f>
         <v>45700</v>
       </c>
@@ -2095,7 +2097,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="18" t="n">
         <f aca="false">A3+7</f>
         <v>45702</v>
       </c>
@@ -2114,7 +2116,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="18" t="n">
         <f aca="false">A4+7</f>
         <v>45707</v>
       </c>
@@ -2135,7 +2137,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="18" t="n">
         <f aca="false">A5+7</f>
         <v>45709</v>
       </c>
@@ -2156,7 +2158,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="9"/>
@@ -2168,47 +2170,47 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="81.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="18" t="n">
         <f aca="false">A6+7</f>
         <v>45714</v>
       </c>
       <c r="B9" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="98.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="18" t="n">
         <f aca="false">A7+7</f>
         <v>45716</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="18" t="n">
         <f aca="false">A9+7</f>
         <v>45721</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="4" t="n">
@@ -2228,7 +2230,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="18" t="n">
         <f aca="false">A10+7</f>
         <v>45723</v>
       </c>
@@ -2249,25 +2251,25 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="93.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="18" t="n">
         <f aca="false">A11+7</f>
         <v>45728</v>
       </c>
@@ -2275,10 +2277,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>8</v>
@@ -2288,134 +2290,134 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="18" t="n">
         <f aca="false">A13+7</f>
         <v>45730</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="18" t="n">
         <f aca="false">A15+7</f>
         <v>45735</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="103.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="18" t="n">
         <f aca="false">A16+7</f>
         <v>45737</v>
       </c>
       <c r="B18" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="15"/>
+      <c r="C18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="18" t="n">
         <f aca="false">A17+7</f>
         <v>45742</v>
       </c>
       <c r="B19" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="15"/>
+      <c r="C19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="18" t="n">
         <f aca="false">A18+7</f>
         <v>45744</v>
       </c>
       <c r="B20" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="15"/>
+      <c r="C20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="106.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="18" t="n">
         <f aca="false">A19+7</f>
         <v>45749</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>45</v>
+      <c r="C21" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="18" t="n">
         <f aca="false">A20+7</f>
         <v>45751</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>45</v>
+      <c r="C22" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -2423,20 +2425,20 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="112.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="18" t="n">
         <f aca="false">A21+7</f>
         <v>45756</v>
       </c>
       <c r="B23" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>45</v>
+      <c r="C23" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -2444,20 +2446,20 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="99.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="18" t="n">
         <f aca="false">A22+7</f>
         <v>45758</v>
       </c>
       <c r="B24" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>45</v>
+      <c r="C24" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -2465,20 +2467,20 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="112.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="18" t="n">
         <f aca="false">A23+7</f>
         <v>45763</v>
       </c>
       <c r="B25" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>45</v>
+      <c r="C25" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -2486,35 +2488,35 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="106.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="18" t="n">
         <f aca="false">A24+7</f>
         <v>45765</v>
       </c>
       <c r="B26" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="94" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="18" t="n">
         <f aca="false">A25+7</f>
         <v>45770</v>
       </c>
       <c r="B27" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>45</v>
+      <c r="C27" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -2522,15 +2524,15 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="18" t="n">
         <f aca="false">A26+7</f>
         <v>45772</v>
       </c>
       <c r="B28" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>53</v>
+      <c r="C28" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>13</v>
@@ -2539,19 +2541,19 @@
         <v>8</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="18" t="n">
         <f aca="false">A27+7</f>
         <v>45777</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>53</v>
+      <c r="C29" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>13</v>
@@ -2560,26 +2562,26 @@
         <v>8</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="18" t="n">
         <f aca="false">A28+7</f>
         <v>45779</v>
       </c>
       <c r="B30" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="18" t="n">
         <f aca="false">A29+7</f>
         <v>45784</v>
       </c>
@@ -2587,47 +2589,47 @@
         <v>24</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="18" t="n">
         <f aca="false">A30+7</f>
         <v>45786</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="14" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="18" t="n">
         <f aca="false">A31+7</f>
         <v>45791</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="14" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2694,7 +2696,7 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="18" t="n">
         <v>45511</v>
       </c>
       <c r="B2" s="4" t="n">
@@ -2713,11 +2715,11 @@
         <v>9</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="18" t="n">
         <v>45513</v>
       </c>
       <c r="B3" s="4" t="n">
@@ -2738,7 +2740,7 @@
       <c r="G3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="18" t="n">
         <f aca="false">A2+7</f>
         <v>45518</v>
       </c>
@@ -2758,7 +2760,7 @@
       <c r="G4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="18" t="n">
         <f aca="false">A3+7</f>
         <v>45520</v>
       </c>
@@ -2780,7 +2782,7 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="18" t="n">
         <f aca="false">A4+7</f>
         <v>45525</v>
       </c>
@@ -2802,7 +2804,7 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="18" t="n">
         <f aca="false">A5+7</f>
         <v>45527</v>
       </c>
@@ -2824,7 +2826,7 @@
       <c r="G7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="98.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="18" t="n">
         <f aca="false">A6+7</f>
         <v>45532</v>
       </c>
@@ -2846,7 +2848,7 @@
       <c r="G8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="18" t="n">
         <f aca="false">A7+7</f>
         <v>45534</v>
       </c>
@@ -2868,7 +2870,7 @@
       <c r="G9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="18" t="n">
         <f aca="false">A8+7</f>
         <v>45539</v>
       </c>
@@ -2876,23 +2878,23 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="18" t="n">
         <f aca="false">A9+7</f>
         <v>45541</v>
       </c>
@@ -2900,10 +2902,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>8</v>
@@ -2912,11 +2914,11 @@
         <v>63</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="18" t="n">
         <f aca="false">A10+7</f>
         <v>45546</v>
       </c>
@@ -2936,122 +2938,122 @@
         <v>26</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="18" t="n">
         <f aca="false">A11+7</f>
         <v>45548</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="18" t="n">
         <f aca="false">A12+7</f>
         <v>45553</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="103.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="18" t="n">
         <f aca="false">A13+7</f>
         <v>45555</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="15"/>
+      <c r="C15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="18" t="n">
         <f aca="false">A14+7</f>
         <v>45560</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="15"/>
+      <c r="C16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="18" t="n">
         <f aca="false">A15+7</f>
         <v>45562</v>
       </c>
       <c r="B17" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>45</v>
+      <c r="C17" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="18" t="n">
         <f aca="false">A16+7</f>
         <v>45567</v>
       </c>
       <c r="B18" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>45</v>
+      <c r="C18" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -3059,86 +3061,86 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="98.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="18" t="n">
         <f aca="false">A17+7</f>
         <v>45569</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>45</v>
+      <c r="C19" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="112.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="18" t="n">
         <f aca="false">A18+7</f>
         <v>45574</v>
       </c>
       <c r="B20" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>45</v>
+      <c r="C20" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="99.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="18" t="n">
         <f aca="false">A19+7</f>
         <v>45576</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>45</v>
+      <c r="C21" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="112.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="18" t="n">
         <f aca="false">A20+7</f>
         <v>45581</v>
       </c>
       <c r="B22" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>45</v>
+      <c r="C22" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -3146,60 +3148,60 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="106.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="18" t="n">
         <f aca="false">A21+7</f>
         <v>45583</v>
       </c>
       <c r="B23" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>45</v>
+      <c r="C23" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="94" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="18" t="n">
         <f aca="false">A22+7</f>
         <v>45588</v>
       </c>
       <c r="B24" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>45</v>
+      <c r="C24" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="18" t="n">
         <f aca="false">A23+7</f>
         <v>45590</v>
       </c>
       <c r="B25" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>53</v>
+      <c r="C25" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>13</v>
@@ -3208,22 +3210,22 @@
         <v>8</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="18" t="n">
         <f aca="false">A24+7</f>
         <v>45595</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>53</v>
+      <c r="C26" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>13</v>
@@ -3232,86 +3234,86 @@
         <v>8</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="18" t="n">
         <f aca="false">A25+7</f>
         <v>45597</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>53</v>
+      <c r="C27" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="18" t="n">
         <f aca="false">A26+7</f>
         <v>45602</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>32</v>
+      <c r="C28" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="17" t="s">
         <v>34</v>
       </c>
+      <c r="E28" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="F28" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="18" t="n">
         <f aca="false">A27+7</f>
         <v>45604</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="18" t="n">
         <f aca="false">A28+7</f>
         <v>45609</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3369,17 +3371,17 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="18" t="n">
         <v>45329</v>
       </c>
       <c r="B2" s="4" t="n">
@@ -3399,7 +3401,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="18" t="n">
         <v>45331</v>
       </c>
       <c r="B3" s="4" t="n">
@@ -3419,31 +3421,31 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="18" t="n">
         <f aca="false">A2+7</f>
         <v>45336</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="18" t="n">
         <f aca="false">A3+7</f>
         <v>45338</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3453,18 +3455,18 @@
         <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="18" t="n">
         <f aca="false">A4+7</f>
         <v>45343</v>
       </c>
       <c r="B6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -3474,18 +3476,18 @@
         <v>8</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="18" t="n">
         <f aca="false">A5+7</f>
         <v>45345</v>
       </c>
       <c r="B7" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -3495,19 +3497,19 @@
         <v>8</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="18" t="n">
         <f aca="false">A6+7</f>
         <v>45350</v>
       </c>
       <c r="B8" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>53</v>
+      <c r="C8" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>13</v>
@@ -3516,19 +3518,19 @@
         <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="155.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="18" t="n">
         <f aca="false">A7+7</f>
         <v>45352</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>53</v>
+      <c r="C9" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>13</v>
@@ -3537,32 +3539,32 @@
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="18" t="n">
         <f aca="false">A8+7</f>
         <v>45357</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>53</v>
+      <c r="C10" s="22" t="s">
+        <v>70</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="99.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="18" t="n">
         <f aca="false">A9+7</f>
         <v>45359</v>
       </c>
@@ -3570,7 +3572,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>13</v>
@@ -3579,18 +3581,18 @@
         <v>8</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="18" t="n">
         <f aca="false">A10+7</f>
         <v>45364</v>
       </c>
       <c r="B12" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -3600,16 +3602,16 @@
         <v>8</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="18" t="n">
         <f aca="false">A11+7</f>
         <v>45366</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -3619,68 +3621,68 @@
         <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="18" t="n">
         <f aca="false">A12+7</f>
         <v>45371</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="17" t="s">
-        <v>32</v>
+      <c r="B14" s="14"/>
+      <c r="C14" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="103.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="18" t="n">
         <f aca="false">A13+7</f>
         <v>45373</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="15"/>
+      <c r="C15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="18" t="n">
         <f aca="false">A14+7</f>
         <v>45378</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="15"/>
+      <c r="C16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="18" t="n">
         <f aca="false">A15+7</f>
         <v>45380</v>
       </c>
@@ -3688,25 +3690,25 @@
         <v>13</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="18" t="n">
         <f aca="false">A16+7</f>
         <v>45385</v>
       </c>
       <c r="B18" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -3716,32 +3718,32 @@
         <v>8</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="18" t="n">
         <f aca="false">A17+7</f>
         <v>45387</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="18" t="n">
         <f aca="false">A18+7</f>
         <v>45392</v>
       </c>
@@ -3762,78 +3764,78 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="18" t="n">
         <f aca="false">A19+7</f>
         <v>45394</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>45</v>
+      <c r="C21" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="94" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="18" t="n">
         <f aca="false">A20+7</f>
         <v>45399</v>
       </c>
       <c r="B22" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>45</v>
+      <c r="C22" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="18" t="n">
         <f aca="false">A21+7</f>
         <v>45401</v>
       </c>
       <c r="B23" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>45</v>
+      <c r="C23" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="94" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="18" t="n">
         <f aca="false">A22+7</f>
         <v>45406</v>
       </c>
       <c r="B24" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>45</v>
+      <c r="C24" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>68</v>
@@ -3842,32 +3844,32 @@
         <v>8</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="18" t="n">
         <f aca="false">A23+7</f>
         <v>45408</v>
       </c>
       <c r="B25" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>45</v>
+      <c r="C25" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="18" t="n">
         <f aca="false">A24+7</f>
         <v>45413</v>
       </c>
@@ -3875,87 +3877,87 @@
         <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="18" t="n">
         <f aca="false">A25+7</f>
         <v>45415</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>39</v>
+      <c r="C27" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="18" t="n">
         <f aca="false">A26+7</f>
         <v>45420</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>39</v>
+      <c r="C28" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="18" t="n">
         <f aca="false">A27+7</f>
         <v>45422</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="18" t="n">
         <f aca="false">A28+7</f>
         <v>45427</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4013,17 +4015,17 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="18" t="n">
         <v>45329</v>
       </c>
       <c r="B2" s="4" t="n">
@@ -4043,7 +4045,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="18" t="n">
         <v>45331</v>
       </c>
       <c r="B3" s="4" t="n">
@@ -4063,24 +4065,24 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="18" t="n">
         <f aca="false">A2+7</f>
         <v>45336</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="18" t="n">
         <f aca="false">A3+7</f>
         <v>45338</v>
       </c>
@@ -4100,39 +4102,39 @@
         <v>11</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="18" t="n">
         <f aca="false">A4+7</f>
         <v>45343</v>
       </c>
       <c r="B6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="18" t="n">
         <f aca="false">A5+7</f>
         <v>45345</v>
       </c>
       <c r="B7" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -4142,40 +4144,40 @@
         <v>8</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="144.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="18" t="n">
         <f aca="false">A6+7</f>
         <v>45350</v>
       </c>
       <c r="B8" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="155.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="18" t="n">
         <f aca="false">A7+7</f>
         <v>45352</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>109</v>
+      <c r="C9" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>13</v>
@@ -4184,19 +4186,19 @@
         <v>8</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="18" t="n">
         <f aca="false">A8+7</f>
         <v>45357</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>109</v>
+      <c r="C10" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>13</v>
@@ -4205,32 +4207,32 @@
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="18" t="n">
         <f aca="false">A9+7</f>
         <v>45359</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>109</v>
+      <c r="C11" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="18" t="n">
         <f aca="false">A10+7</f>
         <v>45364</v>
       </c>
@@ -4238,7 +4240,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>13</v>
@@ -4247,16 +4249,16 @@
         <v>8</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="18" t="n">
         <f aca="false">A11+7</f>
         <v>45366</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -4266,16 +4268,16 @@
         <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="18" t="n">
         <f aca="false">A12+7</f>
         <v>45371</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -4285,64 +4287,64 @@
         <v>8</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="103.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="18" t="n">
         <f aca="false">A13+7</f>
         <v>45373</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="15"/>
+      <c r="C15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="18" t="n">
         <f aca="false">A14+7</f>
         <v>45378</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="15"/>
+      <c r="C16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="14"/>
       <c r="I16" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="J16" s="18" t="s">
-        <v>115</v>
+      <c r="J16" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="18" t="n">
         <f aca="false">A15+7</f>
         <v>45380</v>
       </c>
@@ -4350,25 +4352,25 @@
         <v>13</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="18" t="n">
         <f aca="false">A16+7</f>
         <v>45385</v>
       </c>
       <c r="B18" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -4378,32 +4380,32 @@
         <v>8</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="18" t="n">
         <f aca="false">A17+7</f>
         <v>45387</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="18" t="n">
         <f aca="false">A18+7</f>
         <v>45392</v>
       </c>
@@ -4424,81 +4426,81 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="18" t="n">
         <f aca="false">A19+7</f>
         <v>45394</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>45</v>
+      <c r="C21" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="18" t="n">
         <f aca="false">A20+7</f>
         <v>45399</v>
       </c>
       <c r="B22" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>45</v>
+      <c r="C22" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="18" t="n">
         <f aca="false">A21+7</f>
         <v>45401</v>
       </c>
       <c r="B23" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>45</v>
+      <c r="C23" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="18" t="n">
         <f aca="false">A22+7</f>
         <v>45406</v>
       </c>
       <c r="B24" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>45</v>
+      <c r="C24" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>68</v>
@@ -4507,35 +4509,35 @@
         <v>8</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="18" t="n">
         <f aca="false">A23+7</f>
         <v>45408</v>
       </c>
       <c r="B25" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>45</v>
+      <c r="C25" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="18" t="n">
         <f aca="false">A24+7</f>
         <v>45413</v>
       </c>
@@ -4543,90 +4545,90 @@
         <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="89.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="18" t="n">
         <f aca="false">A25+7</f>
         <v>45415</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>39</v>
+      <c r="C27" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="69.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="18" t="n">
         <f aca="false">A26+7</f>
         <v>45420</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>39</v>
+      <c r="C28" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="18" t="n">
         <f aca="false">A27+7</f>
         <v>45422</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="18" t="n">
         <f aca="false">A28+7</f>
         <v>45427</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4681,17 +4683,17 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="18" t="n">
         <v>44965</v>
       </c>
       <c r="B2" s="4" t="n">
@@ -4708,7 +4710,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="18" t="n">
         <v>44967</v>
       </c>
       <c r="B3" s="4" t="n">
@@ -4723,7 +4725,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="18" t="n">
         <f aca="false">A2+7</f>
         <v>44972</v>
       </c>
@@ -4738,11 +4740,11 @@
         <v>11</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="18" t="n">
         <f aca="false">A3+7</f>
         <v>44974</v>
       </c>
@@ -4750,29 +4752,29 @@
         <v>4</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="18" t="n">
         <f aca="false">A4+7</f>
         <v>44979</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="18" t="n">
         <f aca="false">A5+7</f>
         <v>44981</v>
       </c>
@@ -4781,14 +4783,14 @@
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="102" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="18" t="n">
         <f aca="false">A6+7</f>
         <v>44986</v>
       </c>
@@ -4797,14 +4799,14 @@
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="155.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="18" t="n">
         <f aca="false">A7+7</f>
         <v>44988</v>
       </c>
@@ -4812,17 +4814,17 @@
         <v>7</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="18" t="n">
         <f aca="false">A8+7</f>
         <v>44993</v>
       </c>
@@ -4831,14 +4833,14 @@
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="18" t="n">
         <f aca="false">A9+7</f>
         <v>44995</v>
       </c>
@@ -4852,11 +4854,11 @@
         <v>21</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="18" t="n">
         <f aca="false">A10+7</f>
         <v>45000</v>
       </c>
@@ -4868,11 +4870,11 @@
         <v>28</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="18" t="n">
         <f aca="false">A11+7</f>
         <v>45002</v>
       </c>
@@ -4884,11 +4886,11 @@
         <v>30</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="18" t="n">
         <f aca="false">A12+7</f>
         <v>45007</v>
       </c>
@@ -4900,7 +4902,7 @@
       <c r="E14" s="37"/>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="18" t="n">
         <f aca="false">A13+7</f>
         <v>45009</v>
       </c>
@@ -4912,7 +4914,7 @@
       <c r="E15" s="37"/>
     </row>
     <row r="16" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="18" t="n">
         <f aca="false">A14+7</f>
         <v>45014</v>
       </c>
@@ -4920,32 +4922,32 @@
         <v>12</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H16" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="I16" s="18" t="s">
-        <v>115</v>
+      <c r="I16" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L16" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="18" t="n">
         <f aca="false">A15+7</f>
         <v>45016</v>
       </c>
@@ -4957,35 +4959,35 @@
         <v>13</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="18" t="n">
         <f aca="false">A16+7</f>
         <v>45021</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="18" t="n">
         <f aca="false">A17+7</f>
         <v>45023</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="18" t="n">
         <f aca="false">A18+7</f>
         <v>45028</v>
       </c>
@@ -4994,17 +4996,17 @@
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="18" t="n">
         <f aca="false">A19+7</f>
         <v>45030</v>
       </c>
@@ -5012,17 +5014,17 @@
         <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="18" t="n">
         <f aca="false">A20+7</f>
         <v>45035</v>
       </c>
@@ -5031,26 +5033,26 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="18" t="n">
         <f aca="false">A21+7</f>
         <v>45037</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="18" t="n">
         <f aca="false">A22+7</f>
         <v>45042</v>
       </c>
@@ -5062,11 +5064,11 @@
         <v>68</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="18" t="n">
         <f aca="false">A23+7</f>
         <v>45044</v>
       </c>
@@ -5075,14 +5077,14 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="18" t="n">
         <f aca="false">A24+7</f>
         <v>45049</v>
       </c>
@@ -5090,17 +5092,17 @@
         <v>19</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="18" t="n">
         <f aca="false">A25+7</f>
         <v>45051</v>
       </c>
@@ -5110,11 +5112,11 @@
       <c r="C27" s="36"/>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="18" t="n">
         <f aca="false">A26+7</f>
         <v>45056</v>
       </c>
@@ -5124,11 +5126,11 @@
       <c r="C28" s="36"/>
       <c r="D28" s="9"/>
       <c r="E28" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="18" t="n">
         <f aca="false">A27+7</f>
         <v>45058</v>
       </c>
@@ -5140,25 +5142,25 @@
       <c r="E29" s="39"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="18" t="n">
         <f aca="false">A28+7</f>
         <v>45063</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="18" t="n">
         <f aca="false">A29+7</f>
         <v>45065</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="18" t="n">
         <f aca="false">A30+7</f>
         <v>45070</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="18" t="n">
         <f aca="false">A31+7</f>
         <v>45072</v>
       </c>
